--- a/teaching/traditional_assets/database/data/kuwait/kuwait_steel.xlsx
+++ b/teaching/traditional_assets/database/data/kuwait/kuwait_steel.xlsx
@@ -591,121 +591,115 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.07150000000000001</v>
-      </c>
-      <c r="E2">
-        <v>-0.207</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="G2">
-        <v>0.2598967297762479</v>
+        <v>0.1142566191446029</v>
       </c>
       <c r="H2">
-        <v>0.2598967297762479</v>
+        <v>0.1142566191446029</v>
       </c>
       <c r="I2">
-        <v>-0.003442340791738382</v>
+        <v>0.3529275524376054</v>
       </c>
       <c r="J2">
-        <v>-0.003171403702806882</v>
+        <v>0.3529275524376054</v>
       </c>
       <c r="K2">
-        <v>2.42</v>
+        <v>-1.97</v>
       </c>
       <c r="L2">
-        <v>0.4165232358003442</v>
+        <v>-0.4012219959266802</v>
       </c>
       <c r="M2">
-        <v>60.5</v>
+        <v>15.93</v>
       </c>
       <c r="N2">
-        <v>0.7571964956195244</v>
+        <v>0.2500784929356358</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>-8.086294416243655</v>
       </c>
       <c r="P2">
-        <v>36.3</v>
+        <v>14.3</v>
       </c>
       <c r="Q2">
-        <v>0.4543178973717146</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="R2">
-        <v>15</v>
+        <v>-7.258883248730965</v>
       </c>
       <c r="S2">
-        <v>24.2</v>
+        <v>1.629999999999999</v>
       </c>
       <c r="T2">
-        <v>0.4</v>
+        <v>0.1023226616446955</v>
       </c>
       <c r="U2">
-        <v>19.9</v>
+        <v>3.39</v>
       </c>
       <c r="V2">
-        <v>0.2490613266583229</v>
+        <v>0.0532182103610675</v>
       </c>
       <c r="W2">
-        <v>0.01729807005003574</v>
+        <v>-0.02739916550764951</v>
       </c>
       <c r="X2">
-        <v>0.06599536852961958</v>
+        <v>0.05984447943376946</v>
       </c>
       <c r="Y2">
-        <v>-0.04869729847958384</v>
+        <v>-0.08724364494141897</v>
       </c>
       <c r="Z2">
-        <v>0.04297655152008285</v>
+        <v>0.09404215449650384</v>
       </c>
       <c r="AA2">
-        <v>-0.0001362959946246615</v>
+        <v>0.03319006741241025</v>
       </c>
       <c r="AB2">
-        <v>0.06599536852961958</v>
+        <v>0.0597486554290149</v>
       </c>
       <c r="AC2">
-        <v>-0.06613166452424424</v>
+        <v>-0.02655858801660465</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
+        <v>0.2106285876567859</v>
+      </c>
+      <c r="AF2">
+        <v>0.2106285876567859</v>
+      </c>
+      <c r="AG2">
+        <v>-3.179371412343214</v>
+      </c>
+      <c r="AH2">
+        <v>0.003295673854434052</v>
+      </c>
+      <c r="AI2">
+        <v>0.003391184285947543</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.05253368126767356</v>
+      </c>
+      <c r="AK2">
+        <v>-0.05414402891817009</v>
+      </c>
+      <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>-19.9</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>-0.3316666666666666</v>
-      </c>
-      <c r="AK2">
-        <v>-0.3826923076923076</v>
-      </c>
-      <c r="AL2">
-        <v>0.003</v>
-      </c>
       <c r="AM2">
-        <v>-0.707</v>
+        <v>-3.5</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
-      <c r="AO2">
-        <v>-6.666666666666667</v>
-      </c>
       <c r="AP2">
-        <v>-251.8987341772152</v>
+        <v>-1.704756789460169</v>
       </c>
       <c r="AQ2">
-        <v>0.02828854314002829</v>
+        <v>-0.4657142857142857</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +719,115 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.07150000000000001</v>
-      </c>
-      <c r="E3">
-        <v>-0.207</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="G3">
-        <v>0.2598967297762479</v>
+        <v>0.1142566191446029</v>
       </c>
       <c r="H3">
-        <v>0.2598967297762479</v>
+        <v>0.1142566191446029</v>
       </c>
       <c r="I3">
-        <v>-0.003442340791738382</v>
+        <v>0.3529275524376054</v>
       </c>
       <c r="J3">
-        <v>-0.003171403702806882</v>
+        <v>0.3529275524376054</v>
       </c>
       <c r="K3">
-        <v>2.42</v>
+        <v>-1.97</v>
       </c>
       <c r="L3">
-        <v>0.4165232358003442</v>
+        <v>-0.4012219959266802</v>
       </c>
       <c r="M3">
-        <v>60.5</v>
+        <v>15.93</v>
       </c>
       <c r="N3">
-        <v>0.7571964956195244</v>
+        <v>0.2500784929356358</v>
       </c>
       <c r="O3">
-        <v>25</v>
+        <v>-8.086294416243655</v>
       </c>
       <c r="P3">
-        <v>36.3</v>
+        <v>14.3</v>
       </c>
       <c r="Q3">
-        <v>0.4543178973717146</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="R3">
-        <v>15</v>
+        <v>-7.258883248730965</v>
       </c>
       <c r="S3">
-        <v>24.2</v>
+        <v>1.629999999999999</v>
       </c>
       <c r="T3">
-        <v>0.4</v>
+        <v>0.1023226616446955</v>
       </c>
       <c r="U3">
-        <v>19.9</v>
+        <v>3.39</v>
       </c>
       <c r="V3">
-        <v>0.2490613266583229</v>
+        <v>0.0532182103610675</v>
       </c>
       <c r="W3">
-        <v>0.01729807005003574</v>
+        <v>-0.02739916550764951</v>
       </c>
       <c r="X3">
-        <v>0.06599536852961958</v>
+        <v>0.05984447943376946</v>
       </c>
       <c r="Y3">
-        <v>-0.04869729847958384</v>
+        <v>-0.08724364494141897</v>
       </c>
       <c r="Z3">
-        <v>0.04297655152008285</v>
+        <v>0.09404215449650384</v>
       </c>
       <c r="AA3">
-        <v>-0.0001362959946246615</v>
+        <v>0.03319006741241025</v>
       </c>
       <c r="AB3">
-        <v>0.06599536852961958</v>
+        <v>0.0597486554290149</v>
       </c>
       <c r="AC3">
-        <v>-0.06613166452424424</v>
+        <v>-0.02655858801660465</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
+        <v>0.2106285876567859</v>
+      </c>
+      <c r="AF3">
+        <v>0.2106285876567859</v>
+      </c>
+      <c r="AG3">
+        <v>-3.179371412343214</v>
+      </c>
+      <c r="AH3">
+        <v>0.003295673854434052</v>
+      </c>
+      <c r="AI3">
+        <v>0.003391184285947543</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.05253368126767356</v>
+      </c>
+      <c r="AK3">
+        <v>-0.05414402891817009</v>
+      </c>
+      <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-19.9</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.3316666666666666</v>
-      </c>
-      <c r="AK3">
-        <v>-0.3826923076923076</v>
-      </c>
-      <c r="AL3">
-        <v>0.003</v>
-      </c>
       <c r="AM3">
-        <v>-0.707</v>
+        <v>-3.5</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
-      <c r="AO3">
-        <v>-6.666666666666667</v>
-      </c>
       <c r="AP3">
-        <v>-251.8987341772152</v>
+        <v>-1.704756789460169</v>
       </c>
       <c r="AQ3">
-        <v>0.02828854314002829</v>
+        <v>-0.4657142857142857</v>
       </c>
     </row>
   </sheetData>
